--- a/report/lmbc_responses.xlsx
+++ b/report/lmbc_responses.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Australia" sheetId="1" r:id="rId1"/>
+    <sheet name="United States" sheetId="1" r:id="rId1"/>
     <sheet name="Belgium " sheetId="2" r:id="rId2"/>
     <sheet name="Poland" sheetId="3" r:id="rId3"/>
-    <sheet name="Romania" sheetId="4" r:id="rId4"/>
-    <sheet name="United States" sheetId="5" r:id="rId5"/>
-    <sheet name="Canada" sheetId="6" r:id="rId6"/>
-    <sheet name="Turkey" sheetId="7" r:id="rId7"/>
-    <sheet name="Finland" sheetId="8" r:id="rId8"/>
-    <sheet name="Columbia" sheetId="9" r:id="rId9"/>
-    <sheet name="Israel" sheetId="10" r:id="rId10"/>
-    <sheet name="New Zealand" sheetId="11" r:id="rId11"/>
+    <sheet name="France" sheetId="4" r:id="rId4"/>
+    <sheet name="Romania" sheetId="5" r:id="rId5"/>
+    <sheet name="Turkey" sheetId="6" r:id="rId6"/>
+    <sheet name="Finland" sheetId="7" r:id="rId7"/>
+    <sheet name="Israel" sheetId="8" r:id="rId8"/>
+    <sheet name="Australia" sheetId="9" r:id="rId9"/>
+    <sheet name="Canada" sheetId="10" r:id="rId10"/>
+    <sheet name="Columbia" sheetId="11" r:id="rId11"/>
+    <sheet name="New Zealand" sheetId="12" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
@@ -407,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -422,102 +423,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://preview.let-me-be-clear.com/au/en-au.html</v>
+        <v>https://preview.let-me-be-clear.com/us/en-us.html</v>
       </c>
       <c r="B2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>https://p.typekit.net/p.gif?s=1&amp;k=dje4ayd&amp;ht=tk&amp;h=preview.let-me-be-clear.com&amp;f=137.139.175.176&amp;a=3431674&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1718279273237</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>https://preview.let-me-be-clear.com/bin/public/abbvie-commons/date-format?path=/content/abbvie-pro/abbvie-ous-config&amp;country=au&amp;language=en</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D64_sn_5S4N5I796HHI64USM4AQRISQVOGHMN2Q&amp;svrid=-64&amp;flavor=cors&amp;vi=DNUROKVARVTAHHPHMVULHVAWFDNUCDPF-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fau%2Fen-au.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2330341587&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D64_sn_5S4N5I796HHI64USM4AQRISQVOGHMN2Q&amp;svrid=-64&amp;flavor=cors&amp;vi=DNUROKVARVTAHHPHMVULHVAWFDNUCDPF-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fau%2Fen-au.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2330341587&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_5S4N5I796HHI64USM4AQRISQVOGHMN2Q_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=DNUROKVARVTAHHPHMVULHVAWFDNUCDPF-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fau%2Fen-au.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=1877541477&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_5S4N5I796HHI64USM4AQRISQVOGHMN2Q_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=DNUROKVARVTAHHPHMVULHVAWFDNUCDPF-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fau%2Fen-au.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=1877541477&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
-      </c>
-      <c r="B10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
-      </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
-      </c>
-      <c r="B12">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -532,71 +453,15 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://preview.let-me-be-clear.com/il/he-il.html</v>
+        <v>https://preview.let-me-be-clear.com/ca/en-us.html</v>
       </c>
       <c r="B2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>https://p.typekit.net/p.gif?s=1&amp;k=dje4ayd&amp;ht=tk&amp;h=preview.storyasis.co.il&amp;f=137.139.175.176&amp;a=3431674&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1718279313616</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D53_sn_L7M147KLMHHOHJVPKP1BM8865TU075RC&amp;svrid=-53&amp;flavor=cors&amp;vi=RGSMWMJDARFPUBRMAEHMPRCCUCFCFFAW-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.storyasis.co.il%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=1516808562&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_6_sn_L7M147KLMHHOHJVPKP1BM8865TU075RC_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=6&amp;flavor=cors&amp;vi=RGSMWMJDARFPUBRMAEHMPRCCUCFCFFAW-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fpreview.storyasis.co.il%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=1002184491&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
-      </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
-      </c>
-      <c r="B8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
-      </c>
-      <c r="B9">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -618,7 +483,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://preview.let-me-be-clear.com/nz/en-nz.html</v>
+        <v>https://preview.let-me-be-clear.com/co/es-co.html</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -626,7 +491,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://p.typekit.net/p.gif?s=1&amp;k=dje4ayd&amp;ht=tk&amp;h=preview.let-me-be-clear.com&amp;f=137.139.175.176&amp;a=3431674&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1718279320999</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D40_sn_TFE640JCM0PAB2L7OMNC3D6ID3VHB0E6&amp;svrid=-40&amp;flavor=cors&amp;vi=NWNERIHKGJSPPFQACVQMWVOQRLEAOVQW-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.aclaremosdeunavez.com.co%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=19561797&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -634,7 +499,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D4_sn_4J1LAC3MB7QLU6HN32F49DU72445O20A&amp;svrid=-4&amp;flavor=cors&amp;vi=PUBLSSPJTKUIARMMFOECMGIFKGBUBNSS-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fnz%2Fen-nz.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2826197276&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D40_sn_TFE640JCM0PAB2L7OMNC3D6ID3VHB0E6&amp;svrid=-40&amp;flavor=cors&amp;vi=NWNERIHKGJSPPFQACVQMWVOQRLEAOVQW-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.aclaremosdeunavez.com.co%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=19561797&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -642,7 +507,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_4J1LAC3MB7QLU6HN32F49DU72445O20A_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=PUBLSSPJTKUIARMMFOECMGIFKGBUBNSS-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fnz%2Fen-nz.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2671471556&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_TFE640JCM0PAB2L7OMNC3D6ID3VHB0E6_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=NWNERIHKGJSPPFQACVQMWVOQRLEAOVQW-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fpreview.aclaremosdeunavez.com.co%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=1205791402&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -650,7 +515,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_4J1LAC3MB7QLU6HN32F49DU72445O20A_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=PUBLSSPJTKUIARMMFOECMGIFKGBUBNSS-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fnz%2Fen-nz.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2671471556&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_TFE640JCM0PAB2L7OMNC3D6ID3VHB0E6_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=NWNERIHKGJSPPFQACVQMWVOQRLEAOVQW-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fpreview.aclaremosdeunavez.com.co%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=1205791402&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -658,7 +523,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/util.js</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -666,7 +531,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/util.js</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -674,7 +539,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/common.js</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -682,7 +547,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/common.js</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -695,9 +560,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -712,7 +577,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://preview.let-me-be-clear.com/be/nl-be.html</v>
+        <v>https://preview.let-me-be-clear.com/nz/en-nz.html</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -720,94 +585,22 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=odmtwz&amp;referer=&amp;fullURL=https%3A%2F%2Fpreview.ikkanwel.be%2F&amp;category=</v>
+        <v>https://p.typekit.net/p.gif?s=1&amp;k=dje4ayd&amp;ht=tk&amp;h=preview.let-me-be-clear.com&amp;f=137.139.175.176&amp;a=3431674&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1720605636120</v>
       </c>
       <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>https://preview.ikkanwel.be/bin/public/abbvie-commons/date-format?path=/content/abbvie-pro/abbvie-ous-config&amp;country=be&amp;language=nl</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D69_sn_IPNSFT8M2CITNDD2V134K66TVN9BLBHO&amp;svrid=-69&amp;flavor=cors&amp;vi=QEPWEUEQGHWHINGPSVHRJRWQWIFMPBLE-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.ikkanwel.be%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=1685848751&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D69_sn_IPNSFT8M2CITNDD2V134K66TVN9BLBHO&amp;svrid=-69&amp;flavor=cors&amp;vi=QEPWEUEQGHWHINGPSVHRJRWQWIFMPBLE-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.ikkanwel.be%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=1685848751&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
-      </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
-      </c>
-      <c r="B8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
-      </c>
-      <c r="B10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_IPNSFT8M2CITNDD2V134K66TVN9BLBHO_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=QEPWEUEQGHWHINGPSVHRJRWQWIFMPBLE-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fpreview.ikkanwel.be%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=1800112707&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_IPNSFT8M2CITNDD2V134K66TVN9BLBHO_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=QEPWEUEQGHWHINGPSVHRJRWQWIFMPBLE-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fpreview.ikkanwel.be%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=1800112707&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B12">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -822,7 +615,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://preview.let-me-be-clear.com/pl/pl-pl.html</v>
+        <v>https://preview.let-me-be-clear.com/be/nl-be.html</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -830,7 +623,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://preview.let-me-be-clear.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-lmbc/pl/pl-pl/jcr:content</v>
+        <v>https://p.typekit.net/p.gif?s=1&amp;k=dje4ayd&amp;ht=tk&amp;h=preview.ikkanwel.be&amp;f=137.139.175.176&amp;a=3431674&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1720605589514</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -838,7 +631,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D71_sn_Q6UQ7GODGF2JDJ3LPTIB279VVTIBVJ36&amp;svrid=-71&amp;flavor=cors&amp;vi=UECIAGPEFKFGTRMETLCHPFOTMCHEPUUU-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fpl%2Fpl-pl.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2685935902&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D75_sn_3H2TEJBSONE1DAPKG01DKP8U3NJE9F85&amp;svrid=-75&amp;flavor=cors&amp;vi=IDCPVANVERRATADQIUUSVHQNIOHHHEAM-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.ikkanwel.be%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2094941083&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -846,7 +639,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D71_sn_Q6UQ7GODGF2JDJ3LPTIB279VVTIBVJ36&amp;svrid=-71&amp;flavor=cors&amp;vi=UECIAGPEFKFGTRMETLCHPFOTMCHEPUUU-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fpl%2Fpl-pl.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2685935902&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_3H2TEJBSONE1DAPKG01DKP8U3NJE9F85_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=IDCPVANVERRATADQIUUSVHQNIOHHHEAM-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fpreview.ikkanwel.be%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=971287273&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -854,7 +647,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_3H2TEJBSONE1DAPKG01DKP8U3NJE9F85_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=IDCPVANVERRATADQIUUSVHQNIOHHHEAM-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fpreview.ikkanwel.be%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=971287273&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -862,7 +655,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/common.js</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -870,7 +663,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/common.js</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -878,7 +671,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/util.js</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -886,23 +679,109 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D71_sn_Q6UQ7GODGF2JDJ3LPTIB279VVTIBVJ36&amp;svrid=-71&amp;flavor=cors&amp;vi=UECIAGPEFKFGTRMETLCHPFOTMCHEPUUU-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fpl%2Fpl-pl.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2611279248&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/util.js</v>
       </c>
       <c r="B10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D71_sn_Q6UQ7GODGF2JDJ3LPTIB279VVTIBVJ36&amp;svrid=-71&amp;flavor=cors&amp;vi=UECIAGPEFKFGTRMETLCHPFOTMCHEPUUU-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fpl%2Fpl-pl.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2611279248&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B11">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B10"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>url</v>
+      </c>
+      <c r="B1" t="str">
+        <v>status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>https://preview.let-me-be-clear.com/pl/pl-pl.html</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/util.js</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/util.js</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/common.js</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/common.js</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D14_sn_32IMG388403STA3OC2H0Q7S2FTFU4L2B&amp;svrid=-14&amp;flavor=cors&amp;vi=LPJGMUVSACPECNLSUHORARMCBJBAMPOR-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fpl%2Fpl-pl.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=3902275824&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D14_sn_32IMG388403STA3OC2H0Q7S2FTFU4L2B&amp;svrid=-14&amp;flavor=cors&amp;vi=LPJGMUVSACPECNLSUHORARMCBJBAMPOR-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fpl%2Fpl-pl.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=3902275824&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_6_sn_32IMG388403STA3OC2H0Q7S2FTFU4L2B_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=6&amp;flavor=cors&amp;vi=LPJGMUVSACPECNLSUHORARMCBJBAMPOR-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fpl%2Fpl-pl.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=3538249364&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_6_sn_32IMG388403STA3OC2H0Q7S2FTFU4L2B_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=6&amp;flavor=cors&amp;vi=LPJGMUVSACPECNLSUHORARMCBJBAMPOR-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fpl%2Fpl-pl.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=3538249364&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B10"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -924,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://preview.let-me-be-clear.com/ro/ro-ro.html</v>
+        <v>https://preview.let-me-be-clear.com/fr/fr-fr.html</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -932,7 +811,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=pjpqsc&amp;referer=&amp;fullURL=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fro%2Fro-ro.html&amp;category=</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/common.js</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -940,7 +819,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://p.typekit.net/p.gif?s=1&amp;k=dje4ayd&amp;ht=tk&amp;h=preview.let-me-be-clear.com&amp;f=137.139.175.176&amp;a=3431674&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1718279282850</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/common.js</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -948,7 +827,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D70_sn_3ATOJNO93CCGADLH976T6N7EC620SJTI&amp;svrid=-70&amp;flavor=cors&amp;vi=HLWGPEQWVCEGJMOSDSITAHWACUWEMHPC-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fro%2Fro-ro.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=635600907&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/util.js</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -956,7 +835,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/util.js</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -964,7 +843,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D38_sn_R6HH5MOCDTOMERL3GKHM85KB8JC1F40S&amp;svrid=-38&amp;flavor=cors&amp;vi=VCMTDTOCVJOPHCUUQVMHDUIPGDFRPHOM-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Ffr%2Ffr-fr.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2338794483&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -972,7 +851,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D70_sn_3ATOJNO93CCGADLH976T6N7EC620SJTI&amp;svrid=-70&amp;flavor=cors&amp;vi=HLWGPEQWVCEGJMOSDSITAHWACUWEMHPC-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fro%2Fro-ro.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=1065853391&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D38_sn_R6HH5MOCDTOMERL3GKHM85KB8JC1F40S&amp;svrid=-38&amp;flavor=cors&amp;vi=VCMTDTOCVJOPHCUUQVMHDUIPGDFRPHOM-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Ffr%2Ffr-fr.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2338794483&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -986,6 +865,68 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>url</v>
+      </c>
+      <c r="B1" t="str">
+        <v>status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>https://preview.let-me-be-clear.com/ro/ro-ro.html</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/util.js</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/util.js</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/common.js</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/common.js</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B6"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1002,7 +943,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://preview.let-me-be-clear.com/us/en-us.html</v>
+        <v>https://preview.let-me-be-clear.com/tr/tr-tr.html</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -1010,7 +951,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D96_sn_VNJS1RR905IQ9Q590B0G08O9RI280BJ4&amp;svrid=-96&amp;flavor=cors&amp;vi=AVCRFUHFRLMHHINBMMVNRDIWUQENVQIS-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fus%2Fen-us.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2940152100&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://p.typekit.net/p.gif?s=1&amp;k=dje4ayd&amp;ht=tk&amp;h=preview.cildineozgurlugunuver.com&amp;f=137.139.175.176&amp;a=3431674&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1720605604742</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -1018,7 +959,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D96_sn_VNJS1RR905IQ9Q590B0G08O9RI280BJ4&amp;svrid=-96&amp;flavor=cors&amp;vi=AVCRFUHFRLMHHINBMMVNRDIWUQENVQIS-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fus%2Fen-us.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2940152100&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D69_sn_6D19S5O3GE1M1UFLOHPOJKFKJSBMVEDB&amp;svrid=-69&amp;flavor=cors&amp;vi=IAMFRFJTFARKPSPPFLKAHIGFVUEDHPAO-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.cildineozgurlugunuver.com%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=3270498330&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -1026,7 +967,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_VNJS1RR905IQ9Q590B0G08O9RI280BJ4_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=AVCRFUHFRLMHHINBMMVNRDIWUQENVQIS-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fus%2Fen-us.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=3200506966&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_6D19S5O3GE1M1UFLOHPOJKFKJSBMVEDB_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=IAMFRFJTFARKPSPPFLKAHIGFVUEDHPAO-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fpreview.cildineozgurlugunuver.com%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=1546648300&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -1034,7 +975,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_VNJS1RR905IQ9Q590B0G08O9RI280BJ4_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=AVCRFUHFRLMHHINBMMVNRDIWUQENVQIS-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fus%2Fen-us.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=3200506966&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_6D19S5O3GE1M1UFLOHPOJKFKJSBMVEDB_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=IAMFRFJTFARKPSPPFLKAHIGFVUEDHPAO-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fpreview.cildineozgurlugunuver.com%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=1546648300&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -1042,7 +983,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/common.js</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -1050,7 +991,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/common.js</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -1058,7 +999,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/util.js</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -1066,7 +1007,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/util.js</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -1079,241 +1020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>url</v>
-      </c>
-      <c r="B1" t="str">
-        <v>status</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>https://preview.let-me-be-clear.com/ca/en-us.html</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>url</v>
-      </c>
-      <c r="B1" t="str">
-        <v>status</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>https://preview.let-me-be-clear.com/tr/tr-tr.html</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=exhpyj&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.06604224555809268&amp;session=d6f57d91-a37a-4c78-a929-5344db73d50d&amp;userType=NEW</v>
-      </c>
-      <c r="B3">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>https://p.typekit.net/p.gif?s=1&amp;k=dje4ayd&amp;ht=tk&amp;h=preview.cildineozgurlugunuver.com&amp;f=137.139.175.176&amp;a=3431674&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1718279296850</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>https://preview.cildineozgurlugunuver.com/bin/public/abbvie-commons/date-format?path=/content/abbvie-pro/abbvie-ous-config&amp;country=tr&amp;language=tr</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D67_sn_4PUNHTNCIR3HEF5C9EGGRUASTM36UE4O&amp;svrid=-67&amp;flavor=cors&amp;vi=HHOUUCQKSBTHAEBRWRUCQPTFRMHRGHLK-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.cildineozgurlugunuver.com%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=396739311&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D67_sn_4PUNHTNCIR3HEF5C9EGGRUASTM36UE4O&amp;svrid=-67&amp;flavor=cors&amp;vi=HHOUUCQKSBTHAEBRWRUCQPTFRMHRGHLK-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.cildineozgurlugunuver.com%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=396739311&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
-      </c>
-      <c r="B8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
-      </c>
-      <c r="B10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
-      </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_4PUNHTNCIR3HEF5C9EGGRUASTM36UE4O_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=HHOUUCQKSBTHAEBRWRUCQPTFRMHRGHLK-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fpreview.cildineozgurlugunuver.com%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=3923018878&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_4PUNHTNCIR3HEF5C9EGGRUASTM36UE4O_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=HHOUUCQKSBTHAEBRWRUCQPTFRMHRGHLK-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fpreview.cildineozgurlugunuver.com%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=3923018878&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B13">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B13"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>url</v>
-      </c>
-      <c r="B1" t="str">
-        <v>status</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>https://preview.let-me-be-clear.com/fi/fi-fi.html</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>https://preview.puhupsorista.fi/bin/public/abbvie-commons/date-format?path=/content/abbvie-pro/abbvie-ous-config&amp;country=fi&amp;language=fi</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>https://p.typekit.net/p.gif?s=1&amp;k=dje4ayd&amp;ht=tk&amp;h=preview.puhupsorista.fi&amp;f=137.139.175.176&amp;a=3431674&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1718279301672</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>https://preview.puhupsorista.fi/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-lmbc/fi/fi-fi/jcr:content</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D88_sn_4DEDK7J140RVK83SVKHTDJ49IBJ9IC8Q&amp;svrid=-88&amp;flavor=cors&amp;vi=UCCAFPRRWHMUIHFPKTCAURATQARCEUJB-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.puhupsorista.fi%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2424739351&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
-      </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
-      </c>
-      <c r="B8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D88_sn_4DEDK7J140RVK83SVKHTDJ49IBJ9IC8Q&amp;svrid=-88&amp;flavor=cors&amp;vi=UCCAFPRRWHMUIHFPKTCAURATQARCEUJB-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.puhupsorista.fi%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=3360506419&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B9"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1330,7 +1037,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://preview.let-me-be-clear.com/co/es-co.html</v>
+        <v>https://preview.let-me-be-clear.com/fi/fi-fi.html</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -1338,23 +1045,23 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=jt1uzk&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.8881115765204379&amp;session=86952d89-cec3-4182-997e-6d65ea66051a&amp;userType=NEW</v>
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=vvkcj7&amp;referer=&amp;fullURL=https%3A%2F%2Fpreview.puhupsorista.fi%2F&amp;category=</v>
       </c>
       <c r="B3">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=jt1uzk&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.5756633954527852&amp;session=86952d89-cec3-4182-997e-6d65ea66051a&amp;userType=NEW</v>
+        <v>https://p.typekit.net/p.gif?s=1&amp;k=dje4ayd&amp;ht=tk&amp;h=preview.puhupsorista.fi&amp;f=137.139.175.176&amp;a=3431674&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1720605613560</v>
       </c>
       <c r="B4">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://p.typekit.net/p.gif?s=1&amp;k=dje4ayd&amp;ht=tk&amp;h=preview.aclaremosdeunavez.com.co&amp;f=137.139.175.176&amp;a=3431674&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1718279305091</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D38_sn_0RES0MVRHNTD6DJA5VJPDE13FJP2Q5O9&amp;svrid=-38&amp;flavor=cors&amp;vi=RQHNPCMCGKPUMUTCCOKDNRUWFRMRWRIA-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.puhupsorista.fi%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=3870669604&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -1362,7 +1069,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D17_sn_GGBBASMD5GHGEHGEATUF5BIMRF7V36OE&amp;svrid=-17&amp;flavor=cors&amp;vi=DPUGEGMURIWCNIUHEGQSDCARUEKCTSEN-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.aclaremosdeunavez.com.co%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=3478741518&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D38_sn_0RES0MVRHNTD6DJA5VJPDE13FJP2Q5O9&amp;svrid=-38&amp;flavor=cors&amp;vi=RQHNPCMCGKPUMUTCCOKDNRUWFRMRWRIA-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.puhupsorista.fi%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=3870669604&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -1370,7 +1077,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_6_sn_GGBBASMD5GHGEHGEATUF5BIMRF7V36OE_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=6&amp;flavor=cors&amp;vi=DPUGEGMURIWCNIUHEGQSDCARUEKCTSEN-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fpreview.aclaremosdeunavez.com.co%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2996807722&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_6_sn_0RES0MVRHNTD6DJA5VJPDE13FJP2Q5O9_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=6&amp;flavor=cors&amp;vi=RQHNPCMCGKPUMUTCCOKDNRUWFRMRWRIA-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fpreview.puhupsorista.fi%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2793239678&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -1378,7 +1085,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_6_sn_GGBBASMD5GHGEHGEATUF5BIMRF7V36OE_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=6&amp;flavor=cors&amp;vi=DPUGEGMURIWCNIUHEGQSDCARUEKCTSEN-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fpreview.aclaremosdeunavez.com.co%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2996807722&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_6_sn_0RES0MVRHNTD6DJA5VJPDE13FJP2Q5O9_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=6&amp;flavor=cors&amp;vi=RQHNPCMCGKPUMUTCCOKDNRUWFRMRWRIA-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fpreview.puhupsorista.fi%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2793239678&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -1386,7 +1093,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/common.js</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -1394,7 +1101,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/util.js</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/common.js</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -1402,7 +1109,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/util.js</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -1410,7 +1117,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/4/common.js</v>
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/util.js</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -1421,4 +1128,168 @@
     <ignoredError numberStoredAsText="1" sqref="A1:B12"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>url</v>
+      </c>
+      <c r="B1" t="str">
+        <v>status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>https://preview.let-me-be-clear.com/il/he-il.html</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D77_sn_74BKFA44OQIVOMOSPJJ8IT1IMR70BIRO&amp;svrid=-77&amp;flavor=cors&amp;vi=DADLOHICCMECPAICHUAHFHCNHCEMORDG-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.storyasis.co.il%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=3439908920&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D77_sn_74BKFA44OQIVOMOSPJJ8IT1IMR70BIRO&amp;svrid=-77&amp;flavor=cors&amp;vi=DADLOHICCMECPAICHUAHFHCNHCEMORDG-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.storyasis.co.il%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=3439908920&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/util.js</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/util.js</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/common.js</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/common.js</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_6_sn_74BKFA44OQIVOMOSPJJ8IT1IMR70BIRO_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=6&amp;flavor=cors&amp;vi=DADLOHICCMECPAICHUAHFHCNHCEMORDG-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fpreview.storyasis.co.il%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=3293597058&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_6_sn_74BKFA44OQIVOMOSPJJ8IT1IMR70BIRO_app-3Ac5914ddc4f041ec8_1_ol_0_perc_100000_mul_1&amp;svrid=6&amp;flavor=cors&amp;vi=DADLOHICCMECPAICHUAHFHCNHCEMORDG-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fpreview.storyasis.co.il%2F&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=3293597058&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B10"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>url</v>
+      </c>
+      <c r="B1" t="str">
+        <v>status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>https://preview.let-me-be-clear.com/au/en-au.html</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>https://p.typekit.net/p.gif?s=1&amp;k=dje4ayd&amp;ht=tk&amp;h=preview.let-me-be-clear.com&amp;f=137.139.175.176&amp;a=3431674&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1720605599660</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/common.js</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://maps.googleapis.com/maps-api-v3/api/js/57/7/util.js</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D14_sn_83SU19S07G411IDUFF1PHOSTK6GKOF3B&amp;svrid=-14&amp;flavor=cors&amp;vi=KSIPIRNIUFVUBQHKOOKJINMFHROPMPJA-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fau%2Fen-au.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=4214073092&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D14_sn_83SU19S07G411IDUFF1PHOSTK6GKOF3B&amp;svrid=-14&amp;flavor=cors&amp;vi=KSIPIRNIUFVUBQHKOOKJINMFHROPMPJA-0&amp;modifiedSince=1665670851181&amp;rf=https%3A%2F%2Fpreview.let-me-be-clear.com%2Fau%2Fen-au.html&amp;bp=3&amp;app=c5914ddc4f041ec8&amp;crc=2046570607&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B7"/>
+  </ignoredErrors>
+</worksheet>
 </file>